--- a/biology/Botanique/Pachycarpus/Pachycarpus.xlsx
+++ b/biology/Botanique/Pachycarpus/Pachycarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachycarpus (E.Mey.) est un genre de plantes à fleurs appartenant à la famille des Apocynaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017) :
 Pachycarpus acidostelma M.Glen &amp; Nicholas
 Pachycarpus appendiculatus E. Mey.
 Pachycarpus asperifolius (Meissn.) Meissn.
@@ -551,7 +565,7 @@
 Pachycarpus stelliceps N. E. Br.
 Pachycarpus suaveolens (Schltr.) A. Nicholas &amp; D.J. Goyder
 Pachycarpus vexillaris E. Mey.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Pachycarpus acidostelma M.Glen &amp; Nicholas (2011)
 Pachycarpus appendiculatus E.Mey. (1838)
 Pachycarpus asperifolius Meisn. (1843)
@@ -601,7 +615,7 @@
 Pachycarpus stenoglossus (E.Mey.) N.E.Br. (1908)
 Pachycarpus suaveolens (Schltr.) Nicholas &amp; Goyder (1990)
 Pachycarpus vexillaris E.Mey. (1838)
-Selon NCBI  (24 juillet 2017)[4] :
+Selon NCBI  (24 juillet 2017) :
 Pachycarpus appendiculatus
 Pachycarpus asperifolius
 Pachycarpus concolor
@@ -614,7 +628,7 @@
 Pachycarpus natalensis
 Pachycarpus reflectens
 Pachycarpus spurius
-Selon The Plant List            (24 juillet 2017)[5] :
+Selon The Plant List            (24 juillet 2017) :
 Pachycarpus appendiculatus E. Mey.
 Pachycarpus asperifolius Meisn.
 Pachycarpus bisacculatus (Oliv.) Goyder
@@ -657,7 +671,7 @@
 Pachycarpus transvaalensis (Schltr.) N.E. Br.
 Pachycarpus validus N.E. Br.
 Pachycarpus vexillaris E. Mey.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Pachycarpus albens E. Mey.
 Pachycarpus appendiculatus E. Mey.
 Pachycarpus asperifolius Meisn.
